--- a/excel/402 Condizionale - Passato.xlsx
+++ b/excel/402 Condizionale - Passato.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13620"/>
+    <workbookView windowWidth="30720" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <t>例句</t>
   </si>
   <si>
-    <t>Condizionale - Passato</t>
+    <t>402 Condizionale - Passato</t>
   </si>
   <si>
     <t>parlare</t>
@@ -91,13 +91,13 @@
     <t>sarebbe andata/andato</t>
   </si>
   <si>
-    <t>saremmo andata/andato</t>
-  </si>
-  <si>
-    <t>sareste andata/andato</t>
-  </si>
-  <si>
-    <t>sarebbero andata/andato</t>
+    <t>saremmo andate/andati</t>
+  </si>
+  <si>
+    <t>sareste andate/andati</t>
+  </si>
+  <si>
+    <t>sarebbero andate/andati</t>
   </si>
   <si>
     <t>essere</t>
@@ -115,13 +115,13 @@
     <t>sarebbe stata/stato</t>
   </si>
   <si>
-    <t>saremmo stata/stato</t>
-  </si>
-  <si>
-    <t>sareste stata/stato</t>
-  </si>
-  <si>
-    <t>sarebbero stata/stato</t>
+    <t>saremmo state/stati</t>
+  </si>
+  <si>
+    <t>sareste state/stati</t>
+  </si>
+  <si>
+    <t>sarebbero state/stati</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1099,7 @@
   <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A19"/>
     </sheetView>
   </sheetViews>
